--- a/freq 20/freq 20.xlsx
+++ b/freq 20/freq 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Documents\GitHub\inversalGen\InversalGen\freq 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C9DEB-8416-4BD5-BF55-BC57B29EB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C69A24-24C8-470D-ACE7-228673CF6E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{55EC94E1-FC9E-4EA2-A601-F7C7DC8BDCEB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="154">
   <si>
     <t>Lost Magnetozones thickness:</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Рассчёт сделан для частоты инверсий 20</t>
+  </si>
+  <si>
+    <t>Fully lost interchanging zones</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fully lost interchanging thikness</c:v>
+                  <c:v>Fully lost interchanging zones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2389,7 +2392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fully lost interchanging thikness</c:v>
+                  <c:v>Fully lost interchanging zones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5406,7 +5409,7 @@
   <dimension ref="B2:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5442,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
